--- a/public/import/daily_template 15.xlsx
+++ b/public/import/daily_template 15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\AMPM INDAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\AMPM PAK WILLIAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -30,64 +30,64 @@
     <t>time</t>
   </si>
   <si>
-    <t>Cek Laporan Operasional Operasional toko</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Stock opname</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Kompetitor</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Store activity</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Absen Trainning OJT</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional To do list Retail</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Punishment Zurich</t>
-  </si>
-  <si>
-    <t>Cek Laporan Operasional Briefing MB AB</t>
-  </si>
-  <si>
-    <t>Briefing retail with rsm rsc</t>
-  </si>
-  <si>
-    <t>08.30</t>
-  </si>
-  <si>
-    <t>Update sell out stock CP</t>
-  </si>
-  <si>
-    <t>14.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendokumentasikan (posting/repost IG) di akun media sosial divisi retail setiap adanya penjualan di toko retail </t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>Update Transaksi CSA Vs SOA</t>
-  </si>
-  <si>
-    <t>15.30</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>Report Penjualan Smartfren ke pak william</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>Monitor Penjualan smartfren</t>
+    <t xml:space="preserve">Cek report activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join briefing rsc rsh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review dan cek report penjualan dan operasional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cek report penjualan zurich </t>
+  </si>
+  <si>
+    <t>Cek rekap report2 dari admin retail</t>
+  </si>
+  <si>
+    <t>Monitoring penjualan oppo vivo produk fokus</t>
+  </si>
+  <si>
+    <t>Cek report to do list rsc</t>
+  </si>
+  <si>
+    <t>Cek report tecno dan iphone rsc</t>
+  </si>
+  <si>
+    <t>Cek report online2</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Briefing with all rsc</t>
+  </si>
+  <si>
+    <t>Follow up pa abi oppo update achievement cs grup</t>
+  </si>
+  <si>
+    <t>Follow up trista update achievement cs grup</t>
+  </si>
+  <si>
+    <t>Kirim ampm dan target weekly week 32</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
   </si>
 </sst>
 </file>
@@ -127,10 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,24 +437,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="116.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -461,137 +463,124 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
